--- a/teste func.xlsx
+++ b/teste func.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>nome</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>gustavo rosas boteon</t>
   </si>
@@ -32,12 +29,24 @@
   <si>
     <t>Bruno Ishizuka de Oliveira</t>
   </si>
+  <si>
+    <t>LUIZ GUSTAVO RODRIGUEZ BARBOSA</t>
+  </si>
+  <si>
+    <t>MARIA SOCORRO LEITE DO NASCIMENTO</t>
+  </si>
+  <si>
+    <t>GEBSON PINHEIRO DA COSTA</t>
+  </si>
+  <si>
+    <t>NOME</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +180,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -514,8 +529,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -837,36 +855,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/teste func.xlsx
+++ b/teste func.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo.boteon\Documents\Bot\AutomationBots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo.boteon\Documents\GitHub\AutomationBots\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -857,7 +857,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
